--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onedayw/Dropbox/Code/Unity3D/InkFighter/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>轨迹卡顿问题修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玩家受伤画面效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>敌人死亡动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用原始大小背景图及调整其他部分相应大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tutorial各场景切换效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,18 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss1场景相关时间及时序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss过场、区域封锁等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人&amp;玩家/敌人&amp;敌人/boss&amp;玩家碰撞方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景音乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +210,6 @@
   </si>
   <si>
     <t>Boss1行为实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战兵行为实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,14 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>达到初期使用pickup时的流畅水平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如寻路策略的实现需重建场景，重建时注意实现此项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏背景设定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,24 +365,99 @@
   <si>
     <t>分工</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美工</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>寻路</t>
+  </si>
+  <si>
+    <t>BOSS SCRIPT</t>
+  </si>
+  <si>
+    <t>周日</t>
+  </si>
+  <si>
+    <t>周二</t>
+  </si>
+  <si>
+    <t>LLL</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>圆招式</t>
+  </si>
+  <si>
+    <t>识别🌩</t>
+  </si>
+  <si>
+    <t>墨迹反弹</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>BOSS区域过场</t>
+  </si>
+  <si>
+    <t>Perk</t>
+  </si>
+  <si>
+    <t>CSY</t>
+  </si>
+  <si>
+    <t>显示money</t>
+  </si>
+  <si>
+    <t>显示攻击范围</t>
+  </si>
+  <si>
+    <t>显示敌人血量</t>
+  </si>
+  <si>
+    <t>主角跑步动画</t>
+  </si>
+  <si>
+    <t>敌人挥剑动画</t>
+  </si>
+  <si>
+    <t>敌人视野</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>主角跑步素材</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,7 +494,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,14 +806,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" customWidth="1"/>
@@ -775,7 +821,7 @@
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -786,648 +832,579 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E53">
-        <f>+H54</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <f>+H50</f>
         <v>0</v>
       </c>
     </row>
@@ -1439,4 +1416,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="109">
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>主角跑步素材</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1426,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1489,6 +1492,9 @@
       <c r="C5" t="s">
         <v>93</v>
       </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
       <c r="F5" t="s">
         <v>89</v>
       </c>
@@ -1517,6 +1523,9 @@
       <c r="C7" t="s">
         <v>95</v>
       </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
       <c r="F7" t="s">
         <v>90</v>
       </c>
@@ -1573,6 +1582,9 @@
       <c r="C13" t="s">
         <v>103</v>
       </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
       <c r="F13" t="s">
         <v>90</v>
       </c>
@@ -1601,6 +1613,9 @@
       <c r="C16" t="s">
         <v>100</v>
       </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
       <c r="F16" t="s">
         <v>89</v>
       </c>
@@ -1629,6 +1644,9 @@
       <c r="C18" t="s">
         <v>102</v>
       </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
       <c r="F18" t="s">
         <v>89</v>
       </c>
@@ -1642,6 +1660,9 @@
       </c>
       <c r="C20" t="s">
         <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
       </c>
       <c r="F20" t="s">
         <v>89</v>

--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,30 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/onedayw/Dropbox/Code/Unity3D/InkFighter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliver\Documents\GitHub\InkFighter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16238" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -453,14 +450,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -497,7 +494,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,15 +813,15 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" customWidth="1"/>
+    <col min="4" max="4" width="34.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -861,7 +858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -875,7 +872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -892,7 +889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -906,7 +903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -917,7 +914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -928,7 +925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -939,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -953,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -964,7 +961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -978,7 +975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -992,7 +989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1034,7 +1031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1092,7 +1089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1191,7 +1188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1216,7 +1213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1244,7 +1241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1291,7 +1288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1372,7 +1369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1394,7 +1391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
       <c r="E49">
         <f>+H50</f>
         <v>0</v>
@@ -1426,15 +1423,15 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -1471,7 +1468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1533,7 +1530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1547,7 +1544,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1575,7 +1572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -1623,7 +1620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1637,7 +1634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -1654,7 +1651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1672,6 +1669,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/todolist.xlsx
+++ b/todolist.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliver\Documents\GitHub\InkFighter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyic\Documents\GitHub\InkFighter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="16238" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16236" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -445,19 +445,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,7 +494,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,15 +813,15 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" customWidth="1"/>
-    <col min="4" max="4" width="34.1328125" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -858,7 +858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -872,7 +872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -889,7 +889,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -903,7 +903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -914,7 +914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -925,7 +925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -950,7 +950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -961,7 +961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -975,7 +975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="28.8">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -989,7 +989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="43.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="5:5">
       <c r="E49">
         <f>+H50</f>
         <v>0</v>
@@ -1423,15 +1423,15 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>106</v>
       </c>
